--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_new.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="175" documentId="6_{BFA7A2FF-EE31-474C-9095-512E26FEE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{593E8862-7E91-49B8-894F-1696B7F17C4B}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1EFB1-EA7C-414E-94A7-98027577BDF8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
